--- a/biology/Médecine/Arthur_Wœhrlin/Arthur_Wœhrlin.xlsx
+++ b/biology/Médecine/Arthur_Wœhrlin/Arthur_Wœhrlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur_W%C5%93hrlin</t>
+          <t>Arthur_Wœhrlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Arthur Wœhrlin, né le 13 août 1847 à Strasbourg et mort le 21 décembre 1900 (à 53 ans) dans cette ville, est un médecin strasbourgeois. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur_W%C5%93hrlin</t>
+          <t>Arthur_Wœhrlin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du pharmacien Philippe Wœhrlin et de Virginie Fourniol.
-Il s'occupe beaucoup de la médecine scolaire du canton Nord et fait progresser l'hygiène des enfants dans les écoles[1]. Il a donné son nom à une rue à Strasbourg dans le quartier de la Robertsau[2].
-Il est inhumé au cimetière Saint-Louis de Strasbourg (Robertsau[3]).
+Il s'occupe beaucoup de la médecine scolaire du canton Nord et fait progresser l'hygiène des enfants dans les écoles. Il a donné son nom à une rue à Strasbourg dans le quartier de la Robertsau.
+Il est inhumé au cimetière Saint-Louis de Strasbourg (Robertsau).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur_W%C5%93hrlin</t>
+          <t>Arthur_Wœhrlin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Notes sur les blessures par armes à feu, observées à l'ambulance du Lycée de Strasbourg, pendant le siège de cette ville, [thèse de médecine][4], Paris, 1871.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Notes sur les blessures par armes à feu, observées à l'ambulance du Lycée de Strasbourg, pendant le siège de cette ville, [thèse de médecine], Paris, 1871.
 « État sanitaire et maladies régnantes à Strasbourg », in: Annales d'hygiène publique et de médecine légale, XXI, 256.
 (de) Über Verletzungen und traumatische Aneurysmen der Arteria maxillaris interna, Tübingen, 1898.
 En collaboration
